--- a/results/Rezultaty.xlsx
+++ b/results/Rezultaty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakto\Desktop\FaultDiagnosis\FaultDiagnosis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8DD76-A207-4657-A938-5012CB457A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5FF57-63CF-401E-B41F-4B3BC07E39C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="285" windowWidth="25440" windowHeight="15390" tabRatio="802" activeTab="1" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
+    <workbookView xWindow="-25200" yWindow="945" windowWidth="24615" windowHeight="11385" tabRatio="802" activeTab="3" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -5762,12 +5762,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9291,3235 +9290,3190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7703AC6-C032-476D-83E9-89372E5E1BE7}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="15.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>421</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <f>IF(H2="", 0, LEN(H2) - LEN(SUBSTITUTE(H2, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B66" si="0">IF(H3="", 0, LEN(H3) - LEN(SUBSTITUTE(H3, CHAR(10), "")) + 1)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <f>IF(B3 = 0,1,1 - (B3-C3)/B3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:C67" si="1">IF(I4="", 0, LEN(I4) - LEN(SUBSTITUTE(I4, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D3:D66" si="2">C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" ref="G3:G66" si="3">IF(B4 = 0,1,1 - (B4-C4)/B4)</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D66" si="2">C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G66" si="3">IF(B4 = 0,1,1 - (B4-C4)/B4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <f>IF(B29 = 0,1,1 - (B29-C29)/B29)</f>
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>138</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>145</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>148</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" t="s">
         <v>157</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
         <v>163</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>166</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s">
         <v>170</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>170</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" t="s">
         <v>160</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" t="s">
         <v>160</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" t="s">
         <v>174</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" t="s">
         <v>174</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" t="s">
         <v>177</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="6">
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>187</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="6">
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" t="s">
         <v>190</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="6">
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" t="s">
         <v>193</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="6">
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="6">
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" t="s">
         <v>94</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="6">
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" t="s">
         <v>97</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E58" s="5">
-        <v>0</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0</v>
-      </c>
-      <c r="G58" s="6">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
-      <c r="G59" s="6">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60" s="6">
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" t="s">
         <v>201</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61" s="6">
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" t="s">
         <v>203</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E62" s="5">
-        <v>0</v>
-      </c>
-      <c r="F62" s="5">
-        <v>0</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0</v>
-      </c>
-      <c r="G63" s="6">
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-      <c r="F64" s="5">
-        <v>0</v>
-      </c>
-      <c r="G64" s="6">
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-      <c r="F65" s="5">
-        <v>0</v>
-      </c>
-      <c r="G65" s="6">
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" t="s">
         <v>208</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E66" s="5">
-        <v>0</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0</v>
-      </c>
-      <c r="G66" s="6">
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>45</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <f t="shared" ref="B67:B100" si="4">IF(H67="", 0, LEN(H67) - LEN(SUBSTITUTE(H67, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <f t="shared" ref="D67:D100" si="5">C67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
-      <c r="F67" s="5">
-        <v>0</v>
-      </c>
-      <c r="G67" s="6">
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
         <f t="shared" ref="G67:G98" si="6">IF(B67 = 0,1,1 - (B67-C67)/B67)</f>
         <v>1</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <f t="shared" ref="C68:C100" si="7">IF(I68="", 0, LEN(I68) - LEN(SUBSTITUTE(I68, CHAR(10), "")) + 1)</f>
         <v>1</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68" s="6">
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" t="s">
         <v>213</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69" s="6">
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" t="s">
         <v>216</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70" s="6">
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" t="s">
         <v>48</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71" s="6">
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72" s="6">
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" t="s">
         <v>222</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73" s="6">
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" t="s">
         <v>225</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74" s="6">
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" t="s">
         <v>51</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0</v>
-      </c>
-      <c r="G75" s="6">
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76" s="5">
-        <v>0</v>
-      </c>
-      <c r="G76" s="6">
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" t="s">
         <v>231</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77" s="6">
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" t="s">
         <v>234</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E78" s="5">
-        <v>0</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="6">
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" t="s">
         <v>237</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E79" s="5">
-        <v>0</v>
-      </c>
-      <c r="F79" s="5">
-        <v>0</v>
-      </c>
-      <c r="G79" s="6">
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" t="s">
         <v>240</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E80" s="5">
-        <v>0</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0</v>
-      </c>
-      <c r="G80" s="6">
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" t="s">
         <v>243</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E81" s="5">
-        <v>0</v>
-      </c>
-      <c r="F81" s="5">
-        <v>0</v>
-      </c>
-      <c r="G81" s="6">
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" t="s">
         <v>246</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E82" s="5">
-        <v>0</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82" s="6">
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" t="s">
         <v>249</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5">
-        <v>0</v>
-      </c>
-      <c r="G83" s="6">
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0</v>
-      </c>
-      <c r="G84" s="6">
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" t="s">
         <v>254</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85" s="6">
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" t="s">
         <v>257</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E86" s="5">
-        <v>0</v>
-      </c>
-      <c r="F86" s="5">
-        <v>0</v>
-      </c>
-      <c r="G86" s="6">
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" t="s">
         <v>260</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87" s="6">
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" t="s">
         <v>263</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E88" s="5">
-        <v>0</v>
-      </c>
-      <c r="F88" s="5">
-        <v>0</v>
-      </c>
-      <c r="G88" s="6">
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" t="s">
         <v>266</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
-      <c r="F89" s="5">
-        <v>0</v>
-      </c>
-      <c r="G89" s="6">
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E90" s="5">
-        <v>0</v>
-      </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6">
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" t="s">
         <v>272</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E91" s="5">
-        <v>0</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91" s="6">
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E92" s="5">
-        <v>0</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0</v>
-      </c>
-      <c r="G92" s="6">
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" t="s">
         <v>277</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93" s="6">
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" t="s">
         <v>279</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E94" s="5">
-        <v>0</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94" s="6">
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" t="s">
         <v>60</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95" s="6">
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E96" s="5">
-        <v>0</v>
-      </c>
-      <c r="F96" s="5">
-        <v>0</v>
-      </c>
-      <c r="G96" s="6">
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" t="s">
         <v>282</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97" s="6">
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" t="s">
         <v>284</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5">
-        <v>0</v>
-      </c>
-      <c r="G98" s="6">
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" t="s">
         <v>63</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E99" s="5">
-        <v>0</v>
-      </c>
-      <c r="F99" s="5">
-        <v>0</v>
-      </c>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E100" s="5">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5">
-        <v>0</v>
-      </c>
-      <c r="G100" s="6">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="s">
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
         <v>66</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" t="s">
         <v>66</v>
       </c>
     </row>
@@ -14824,8 +14778,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14836,7 +14790,7 @@
     <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
     <col min="8" max="8" width="49.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="49.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
@@ -14861,7 +14815,7 @@
       <c r="F1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>380</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -14891,7 +14845,7 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -14921,7 +14875,7 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -14951,7 +14905,7 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -14981,7 +14935,7 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -15011,7 +14965,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -15041,7 +14995,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -15071,7 +15025,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -15101,7 +15055,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -15131,7 +15085,7 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -15161,7 +15115,7 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -15191,7 +15145,7 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -15221,7 +15175,7 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -15251,7 +15205,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -15281,7 +15235,7 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -15311,7 +15265,7 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -15341,7 +15295,7 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -15371,7 +15325,7 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -15401,7 +15355,7 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -15431,7 +15385,7 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -15461,7 +15415,7 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -15491,7 +15445,7 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -15521,7 +15475,7 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -15551,7 +15505,7 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -15931,27 +15885,27 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="21.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -15981,55 +15935,55 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <f>IF(H2="", 0, LEN(H2) - LEN(SUBSTITUTE(H2, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>IF(I2="", 0, LEN(I2) - LEN(SUBSTITUTE(I2, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <f>IF(B2 = 0,1,1 - (B2-C2)/B2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f t="shared" ref="B3:B66" si="0">IF(H3="", 0, LEN(H3) - LEN(SUBSTITUTE(H3, CHAR(10), "")) + 1)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C66" si="1">IF(I3="", 0, LEN(I3) - LEN(SUBSTITUTE(I3, CHAR(10), "")) + 1)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="2">C3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G66" si="3">IF(B3 = 0,1,1 - (B3-C3)/B3)</f>
         <v>1</v>
       </c>
@@ -16041,55 +15995,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16101,55 +16055,55 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16161,28 +16115,28 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16194,28 +16148,28 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16227,28 +16181,28 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16260,55 +16214,55 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16320,28 +16274,28 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16353,28 +16307,28 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16386,55 +16340,55 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16446,28 +16400,28 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16479,28 +16433,28 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16512,55 +16466,55 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16572,28 +16526,28 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16605,28 +16559,28 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16638,55 +16592,55 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16698,28 +16652,28 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16731,28 +16685,28 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16764,55 +16718,55 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16824,28 +16778,28 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <f>IF(B29 = 0,1,1 - (B29-C29)/B29)</f>
         <v>1</v>
       </c>
@@ -16857,28 +16811,28 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16890,55 +16844,55 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16950,28 +16904,28 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16983,28 +16937,28 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17016,28 +16970,28 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17049,28 +17003,28 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17082,28 +17036,28 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17115,28 +17069,28 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17148,56 +17102,56 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17210,28 +17164,28 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17244,28 +17198,28 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17278,28 +17232,28 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17312,28 +17266,28 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17346,28 +17300,28 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17380,28 +17334,28 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17414,56 +17368,56 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17476,56 +17430,56 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17538,55 +17492,55 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17598,28 +17552,28 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17631,28 +17585,28 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17664,55 +17618,55 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <f>IF(I55="", 0, LEN(I55) - LEN(SUBSTITUTE(I55, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17724,28 +17678,28 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17757,28 +17711,28 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17790,55 +17744,55 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17850,28 +17804,28 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17883,28 +17837,28 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17916,55 +17870,55 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17976,28 +17930,28 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -18009,28 +17963,28 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -18042,55 +17996,55 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <f t="shared" ref="B67:B100" si="4">IF(H67="", 0, LEN(H67) - LEN(SUBSTITUTE(H67, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <f t="shared" ref="C67:C100" si="5">IF(I67="", 0, LEN(I67) - LEN(SUBSTITUTE(I67, CHAR(10), "")) + 1)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <f t="shared" ref="D67:D100" si="6">C67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
         <f t="shared" ref="G67:G98" si="7">IF(B67 = 0,1,1 - (B67-C67)/B67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18102,28 +18056,28 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18135,28 +18089,28 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18168,55 +18122,55 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18228,28 +18182,28 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18261,28 +18215,28 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18294,55 +18248,55 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18354,28 +18308,28 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4">
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18387,28 +18341,28 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="4">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18420,28 +18374,28 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18453,28 +18407,28 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4">
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18486,28 +18440,28 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4">
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18519,28 +18473,28 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4">
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18552,55 +18506,55 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="4">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18612,28 +18566,28 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="4">
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18645,28 +18599,28 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="4">
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18678,28 +18632,28 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="4">
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18711,28 +18665,28 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="4">
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18744,28 +18698,28 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="4">
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18777,28 +18731,28 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <f t="shared" si="4"/>
         <v>153</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="4">
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18810,55 +18764,55 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="4">
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18870,28 +18824,28 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4">
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18903,28 +18857,28 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18936,55 +18890,55 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -18996,28 +18950,28 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4">
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -19029,28 +18983,28 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="4">
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -19062,54 +19016,54 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4">
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="4">
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1</v>
       </c>
       <c r="H100" s="1" t="s">

--- a/results/Rezultaty.xlsx
+++ b/results/Rezultaty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakto\Desktop\FaultDiagnosis\FaultDiagnosis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5FF57-63CF-401E-B41F-4B3BC07E39C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13050AE-395A-4887-A385-1EDD0C206103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="945" windowWidth="24615" windowHeight="11385" tabRatio="802" activeTab="3" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
+    <workbookView xWindow="-25200" yWindow="405" windowWidth="12600" windowHeight="15150" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -6161,8 +6161,8 @@
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G100"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12486,8 +12486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4714762-0862-4A3F-9533-FDA1B94909D7}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14778,7 +14778,7 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -15527,7 +15527,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
